--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025Q1</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -672,6 +672,1104 @@
         </is>
       </c>
       <c r="X2" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Praxis Precision Medicines, Inc.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0001689548</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ulixacaltamide</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ulixacaltamide</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>The company entered into an exclusive collaboration and license agreement with Tenacia Biotechnology for the development and commercialization of ulixacaltamide in China, Hong Kong, Macau, and Taiwan.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>China, Hong Kong, Macau, Taiwan</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Eligible to receive $264 million in success-based development and commercialization milestone payments and tiered royalties on net sales.</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ulixacaltamide</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ulixacaltamide</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Essential 3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Study 1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025Q3</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>The Independent Data Monitoring Committee recommended stopping the study for futility, but the company decided to continue both Study 1 and Study 2 to completion.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Not Met</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Topline</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ulixacaltamide</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Essential 3 Program</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Study 1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025Q3</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>The Independent Data Monitoring Committee recommended stopping Study 1 for futility as results were unlikely to meet the primary efficacy endpoint. However, the decision was made to continue both Study 1 and Study 2 to completion, with topline results expected in Q3 2025.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Not Met</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Topline</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Enrolling</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>elsunersen</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EMBRAVE Study</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Part 1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2023Q4</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Results from Part 1 of the EMBRAVE study were shared in Q4 2023. Enrollment for the second cohort is ongoing in Brazil, with topline results expected in the first half of 2026.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Topline</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Enrolling</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ulixacaltamide</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ulixacaltamide</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Increased spending for ulixacaltamide program primarily due to increased Essential 3 activity compared to prior year.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>not specified</t>
         </is>

--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,32 +558,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Praxis Precision Medicines, Inc.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>0001689548</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ulixacaltamide</t>
+          <t>ulixacaltamide</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Essential 3 Program</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Study 1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>2025Q3</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>The Independent Data Monitoring Committee recommended stopping the study for futility, but the company decided to continue both studies to completion.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Topline</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -690,47 +690,47 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ulixacaltamide</t>
+          <t>ulixacaltamide</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Essential Tremor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Essential 3 Program</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>600</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>2025Q3</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>The IDMC recommended stopping Study 1 for futility, but the company decided to continue both studies to completion.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Not Met</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>decentralized, multi-study, placebo-controlled</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -790,44 +790,44 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Topline</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Enrolling</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Praxis Precision Medicines, Inc.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>0001689548</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>ulixacaltamide</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Essential Tremor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Phase 2b</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Essential 1 study</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -837,17 +837,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>2023Q1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Topline results informed the design of the Phase 3 Essential 3 program.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>randomized, double-blind, placebo-controlled</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -912,12 +912,12 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Topline</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Completed</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>The company entered into an exclusive collaboration and license agreement with Tenacia Biotechnology for the development and commercialization of ulixacaltamide in China, Hong Kong, Macau, and Taiwan.</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>China, Hong Kong, Macau, Taiwan</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Eligible to receive $264 million in success-based development and commercialization milestone payments and tiered royalties on net sales.</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ulixacaltamide</t>
+          <t>ulixacaltamide</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>The company plans to conduct clinical trials for ulixacaltamide using novel primary endpoints, which may pose challenges in regulatory interpretation and acceptance.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Essential 3</t>
+          <t>Essential 3 Program</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>The Independent Data Monitoring Committee recommended stopping the study for futility, but the company decided to continue both Study 1 and Study 2 to completion.</t>
+          <t>The IDMC recommended stopping Study 1 for futility, but the company decided to continue both Study 1 and Study 2 to completion.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1290,7 +1290,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Praxis Precision Medicines, Inc.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Essential 3 Program</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Phase 3</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Study 1</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1325,22 +1325,22 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025Q3</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>The Independent Data Monitoring Committee recommended stopping Study 1 for futility as results were unlikely to meet the primary efficacy endpoint. However, the decision was made to continue both Study 1 and Study 2 to completion, with topline results expected in Q3 2025.</t>
+          <t>Praxis Precision Medicines, Inc. entered into an exclusive collaboration and license agreement with Tenacia for the development and commercialization of ulixacaltamide in China, Hong Kong, Macau, and Taiwan.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Not Met</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>China, Hong Kong, Macau, Taiwan</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1400,44 +1400,44 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Topline</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Enrolling</t>
+          <t>not specified</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Praxis Precision Medicines, Inc.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>0001689548</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>elsunersen</t>
+          <t>ulixacaltamide</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EMBRAVE Study</t>
+          <t>Essential Tremor</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Part 1</t>
+          <t>Essential 3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1447,17 +1447,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>2025Q1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Results from Part 1 of the EMBRAVE study were shared in Q4 2023. Enrollment for the second cohort is ongoing in Brazil, with topline results expected in the first half of 2026.</t>
+          <t>Interim analysis planned for the first quarter of 2025.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1522,34 +1522,34 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Topline</t>
+          <t>Interim</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Enrolling</t>
+          <t>Ongoing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Praxis Precision Medicines, Inc.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>0001689548</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ulixacaltamide</t>
+          <t>vormatrigine</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Epilepsy</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Photo-Paroxysmal Response (PPR)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1569,17 +1569,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Positive results announced from the PPR study in the first quarter of 2024.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1644,134 +1644,1354 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Topline</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Completed</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Praxis Precision Medicines, Inc.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>0001689548</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>vormatrigine</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Epilepsy</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Observational Study</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025H1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Initiated an observational study in the third quarter of 2024, with topline results expected in the first half of 2025.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Topline</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Praxis Precision Medicines, Inc.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0001689548</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>relutrigine</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Depression</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>EMBOLD</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2024Q3</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Positive topline results from the first cohort of the EMBOLD study announced in the third quarter of 2024.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Topline</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Praxis Precision Medicines, Inc.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0001689548</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>elsunersen</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>EMBRAVE</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2023Q4</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Results from Part 1 of the EMBRAVE study shared in the fourth quarter of 2023.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Topline</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Praxis Precision Medicines, Inc.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0001689548</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>ulixacaltamide</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Increased spending for ulixacaltamide program primarily due to increased Essential 3 activity compared to prior year.</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>not specified</t>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Cerebrum™ Platform</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Essential 3 clinical trials</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2024Q4</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Interim analysis planned for Q4 2024 with topline results anticipated shortly thereafter.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Interim</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Praxis Precision Medicines, Inc.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0001689548</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>relutrigine</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EMBOLD Study</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Phase 2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>EMBOLD study</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2024Q3</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Topline results expected for both cohorts in the third quarter of 2024.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Topline</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Praxis Precision Medicines, Inc.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ulixacaltamide</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Essential Tremor (ET)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Essential 3 clinical trials</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2024Q4</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Interim analysis planned in Q4 2024 with topline results anticipated shortly thereafter.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Interim</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Praxis Precision Medicines, Inc.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PRAX-628</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Epilepsy</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Phase 2</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Photo-Paroxysmal Response (PPR) study</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2024Q1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Positive results announced from the PPR study in Q1 2024.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Topline</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Praxis Precision Medicines, Inc.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PRAX-628</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Epilepsy</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Phase 2</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Open label eight-week study in focal onset seizures or generalized epilepsy</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025H1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Topline results expected in the first half of 2025.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Open label</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Topline</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Praxis Precision Medicines, Inc.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PRAX-628</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Epilepsy</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Phase 2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Double-blind, placebo-controlled, 12-week study in focal onset seizures</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025H2</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Topline results expected in the second half of 2025.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Double-blind, placebo-controlled</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Topline</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Praxis Precision Medicines, Inc.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>relutrigin</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SCN2A-DEE and SCN8A-DEE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Phase 2</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>EMBOLD study</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2024Q3</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Topline results expected for both cohorts in Q3 2024.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Topline</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Praxis Precision Medicines, Inc.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>elsunersen</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>EMBRAVE study</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2023Q4</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Results from Part 1 of the EMBRAVE study shared in Q4 2023.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Topline</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
         </is>
       </c>
     </row>
